--- a/archivos/Modelos de Lineas de Espera.xlsx
+++ b/archivos/Modelos de Lineas de Espera.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\Proyectos e Innovación\Herramientas de un Administrador\Modelos de Lineas de Espera\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mis documentos\Documentos\Universidad\8vo Cuatrimestre\Metodología de la Investigación\TFG\GAP---Gestion-Accesible-para-PyMEs\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5850" yWindow="0" windowWidth="19515" windowHeight="8235" activeTab="1"/>
+    <workbookView xWindow="5850" yWindow="0" windowWidth="19515" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="Cálculos un canal" sheetId="3" r:id="rId1"/>
@@ -1385,7 +1385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -2294,7 +2294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -3153,7 +3153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
